--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documents\0.dnwuzhere\Estudos\Front-End\DIO Eduzz Fullstack Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documents\0.dnwuzhere\Estudos\Front-End\DIO Eduzz Fullstack Dev\dio-eduzz-fullstack-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980F1CFD-3FEE-407E-910F-74C6FE44F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40714D-0A8D-4189-8033-74CC05483760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C9CF9EAA-B75A-4AA5-BC2D-22BF408C50B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>CLI - Command Line Interface</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>git push origin master</t>
+  </si>
+  <si>
+    <t>git config --global init.defaultBranch {branchName}</t>
+  </si>
+  <si>
+    <t>altera o branch padrão do Git (alterei de "master" para "main" para deixar igual ao do GitHub)</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6422D00-2EF8-4D10-9744-FE8CFE2B6A83}">
-  <dimension ref="B2:D37"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +679,16 @@
         <v>36</v>
       </c>
     </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documents\0.dnwuzhere\Estudos\Front-End\DIO Eduzz Fullstack Dev\dio-eduzz-fullstack-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40714D-0A8D-4189-8033-74CC05483760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD7346-99FC-4E9C-9D5B-40D3BDF9756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C9CF9EAA-B75A-4AA5-BC2D-22BF408C50B9}"/>
   </bookViews>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documents\0.dnwuzhere\Estudos\Front-End\DIO Eduzz Fullstack Dev\dio-eduzz-fullstack-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD7346-99FC-4E9C-9D5B-40D3BDF9756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C226AF8E-EAD8-4A47-AC78-8F121622CA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C9CF9EAA-B75A-4AA5-BC2D-22BF408C50B9}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>CLI - Command Line Interface</t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
     <t>Comandos:</t>
   </si>
   <si>
@@ -151,16 +148,38 @@
   </si>
   <si>
     <t>altera o branch padrão do Git (alterei de "master" para "main" para deixar igual ao do GitHub)</t>
+  </si>
+  <si>
+    <t>link stack overflow</t>
+  </si>
+  <si>
+    <t>Git/Github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,13 +202,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,17 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6422D00-2EF8-4D10-9744-FE8CFE2B6A83}">
-  <dimension ref="B2:D39"/>
+  <dimension ref="B2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -522,174 +545,183 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{8760CAED-9E2D-49A1-BAB9-AFCF3BD768EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>